--- a/biology/Médecine/Examen_proctologique/Examen_proctologique.xlsx
+++ b/biology/Médecine/Examen_proctologique/Examen_proctologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un examen proctologique est un examen clinique de la région anale.
 Cet examen peut être réalisé par tout médecin, notamment les médecins généralistes qui pratiquent fréquemment le toucher rectal. L'examen proctologique complet, avec anuscopie et rectoscopie est le plus souvent réalisé par un proctologue (médecins gastro-entérologues ou chirurgiens digestifs).
